--- a/IoT_consumptions.xlsx
+++ b/IoT_consumptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D744446-2B65-4715-B6AC-4D26C2EA60F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3104B37C-C4BB-4243-AF4D-63575D0C0E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00E8D402-5ACD-4747-8C5C-F1C4D85B3A14}"/>
+    <workbookView xWindow="4980" yWindow="2544" windowWidth="17280" windowHeight="8880" xr2:uid="{00E8D402-5ACD-4747-8C5C-F1C4D85B3A14}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -2334,9 +2334,6 @@
     <t>Duty cycle duration</t>
   </si>
   <si>
-    <t>Total duration respect person code</t>
-  </si>
-  <si>
     <t>Estimated num of cycle</t>
   </si>
   <si>
@@ -2371,6 +2368,9 @@
   </si>
   <si>
     <t>ENERGY CONSUMPTION</t>
+  </si>
+  <si>
+    <t>Total duration respect person code + Exec.time</t>
   </si>
 </sst>
 </file>
@@ -2829,7 +2829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2960,6 +2960,15 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2987,20 +2996,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3375,8 +3420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FBC534-0AC6-4DD0-83EB-0F260D7664F0}">
   <dimension ref="A1:AE727"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3394,7 +3439,7 @@
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="21.21875" customWidth="1"/>
     <col min="13" max="13" width="30.88671875" customWidth="1"/>
-    <col min="14" max="14" width="34.6640625" customWidth="1"/>
+    <col min="14" max="14" width="40.21875" customWidth="1"/>
     <col min="15" max="15" width="17.21875" customWidth="1"/>
     <col min="16" max="16" width="17.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="30.109375" customWidth="1"/>
@@ -3417,21 +3462,21 @@
       <c r="C1" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="60" t="s">
         <v>742</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="54" t="s">
         <v>751</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="37" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>761</v>
@@ -3488,13 +3533,13 @@
         <v>749</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>762</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>24</v>
@@ -3506,13 +3551,13 @@
         <v>213</v>
       </c>
       <c r="AB2" s="3">
-        <v>48787</v>
+        <v>49000</v>
       </c>
       <c r="AC2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AD2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE2" s="1"/>
     </row>
@@ -3526,26 +3571,26 @@
       <c r="C3" s="3">
         <v>703.82</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="63" t="s">
         <v>744</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="28"/>
       <c r="I3" s="20" t="s">
         <v>750</v>
       </c>
       <c r="J3" s="15">
         <f>AVERAGE(X:X)</f>
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="K3" s="31">
         <f>PRODUCT(J3,0.001)</f>
-        <v>5.0000000000000001E-4</v>
+        <v>8.7500000000000002E-4</v>
       </c>
       <c r="L3" s="39">
         <f>PRODUCT(F8,K3)</f>
-        <v>1.8356999999999998E-4</v>
+        <v>3.2124749999999999E-4</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>763</v>
@@ -3553,25 +3598,25 @@
       <c r="O3" s="1"/>
       <c r="P3"/>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>24</v>
       </c>
       <c r="Z3">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA3">
         <v>213</v>
       </c>
       <c r="AB3" s="3">
-        <v>48787</v>
+        <v>49000</v>
       </c>
       <c r="AC3">
         <v>189</v>
       </c>
       <c r="AD3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
@@ -3601,18 +3646,18 @@
       </c>
       <c r="J4" s="17">
         <f>AVERAGE(Y:Y)</f>
-        <v>23.833333333333332</v>
+        <v>24</v>
       </c>
       <c r="K4" s="32">
         <f t="shared" ref="K4:K8" si="0">PRODUCT(J4,0.001)</f>
-        <v>2.3833333333333331E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="L4" s="40">
         <f>PRODUCT(F4,K4)</f>
-        <v>1.1124084547803621E-2</v>
+        <v>1.1201875348837214E-2</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="X4" s="1">
         <v>1</v>
@@ -3627,7 +3672,7 @@
         <v>214</v>
       </c>
       <c r="AB4" s="3">
-        <v>48786</v>
+        <v>49000</v>
       </c>
       <c r="AC4">
         <v>189</v>
@@ -3647,7 +3692,7 @@
         <v>704.07</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E5" s="16">
         <f>AVERAGEIF(A:A,"&lt;350")</f>
@@ -3665,17 +3710,17 @@
       </c>
       <c r="J5" s="17">
         <f>AVERAGE(Z:Z)</f>
-        <v>190.33333333333334</v>
+        <v>188.625</v>
       </c>
       <c r="K5" s="32">
         <f t="shared" si="0"/>
-        <v>0.19033333333333335</v>
+        <v>0.18862500000000001</v>
       </c>
       <c r="L5" s="40">
         <f>PRODUCT(F13,K5)</f>
-        <v>0.15175167904761908</v>
-      </c>
-      <c r="M5" s="3"/>
+        <v>0.15038963464285718</v>
+      </c>
+      <c r="M5" s="66"/>
       <c r="X5" s="1">
         <v>0</v>
       </c>
@@ -3689,7 +3734,7 @@
         <v>213</v>
       </c>
       <c r="AB5" s="3">
-        <v>48787</v>
+        <v>49000</v>
       </c>
       <c r="AC5">
         <v>189</v>
@@ -3708,26 +3753,26 @@
       <c r="C6" s="3">
         <v>705.35</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="63" t="s">
         <v>745</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="28"/>
       <c r="I6" s="23" t="s">
         <v>741</v>
       </c>
       <c r="J6" s="17">
         <f>AVERAGE(AB:AB)</f>
-        <v>48785.333333333336</v>
+        <v>49000</v>
       </c>
       <c r="K6" s="32">
         <f t="shared" si="0"/>
-        <v>48.785333333333334</v>
+        <v>49</v>
       </c>
       <c r="L6" s="40">
         <f>PRODUCT(F7,K6)</f>
-        <v>2.9105786278309078</v>
+        <v>2.9233858419958416</v>
       </c>
       <c r="M6" s="3"/>
       <c r="P6" s="3"/>
@@ -3738,13 +3783,13 @@
         <v>24</v>
       </c>
       <c r="Z6">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA6">
         <v>213</v>
       </c>
       <c r="AB6" s="3">
-        <v>48787</v>
+        <v>49000</v>
       </c>
       <c r="AC6">
         <v>188</v>
@@ -3764,7 +3809,7 @@
         <v>705.36</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E7" s="15">
         <f>AVERAGEIF(B:B,"&lt;100")</f>
@@ -3780,15 +3825,15 @@
       </c>
       <c r="J7" s="17">
         <f>AVERAGE(AC:AC)</f>
-        <v>190.33333333333334</v>
+        <v>188.625</v>
       </c>
       <c r="K7" s="32">
         <f t="shared" si="0"/>
-        <v>0.19033333333333335</v>
+        <v>0.18862500000000001</v>
       </c>
       <c r="L7" s="40">
         <f>PRODUCT(F9,K7)</f>
-        <v>0.14760150150000004</v>
+        <v>0.14627670693750006</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -3797,22 +3842,22 @@
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z7">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AA7">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AB7" s="3">
-        <v>48778</v>
+        <v>49000</v>
       </c>
       <c r="AC7">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AD7">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3826,7 +3871,7 @@
         <v>1239.49</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E8" s="17">
         <f>AVERAGEIFS(B:B,B:B,"&gt;330",B:B,"&lt;400")</f>
@@ -3842,21 +3887,40 @@
       </c>
       <c r="J8" s="16">
         <f>AVERAGE(AD:AD)</f>
-        <v>24.333333333333332</v>
+        <v>24.875</v>
       </c>
       <c r="K8" s="33">
         <f t="shared" si="0"/>
-        <v>2.4333333333333332E-2</v>
+        <v>2.4875000000000001E-2</v>
       </c>
       <c r="L8" s="41">
         <f>PRODUCT(F10,K8)</f>
-        <v>7.5669274261603399E-3</v>
+        <v>7.7353693037974713E-3</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="X8" s="1"/>
-      <c r="AB8" s="3"/>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>24</v>
+      </c>
+      <c r="Z8">
+        <v>189</v>
+      </c>
+      <c r="AA8">
+        <v>214</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>49000</v>
+      </c>
+      <c r="AC8">
+        <v>189</v>
+      </c>
+      <c r="AD8">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -3869,7 +3933,7 @@
         <v>705.46</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E9" s="17">
         <f>AVERAGEIF(B:B,"&gt;700")</f>
@@ -3880,15 +3944,34 @@
         <v>0.77548950000000016</v>
       </c>
       <c r="G9" s="28"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="35"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="P9" s="2"/>
-      <c r="X9" s="1"/>
-      <c r="AB9" s="3"/>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>24</v>
+      </c>
+      <c r="Z9">
+        <v>188</v>
+      </c>
+      <c r="AA9">
+        <v>213</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>49000</v>
+      </c>
+      <c r="AC9">
+        <v>188</v>
+      </c>
+      <c r="AD9">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -3901,7 +3984,7 @@
         <v>706.98</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E10" s="17">
         <f>AVERAGEIFS(B:B,B:B,"&gt;300",B:B,"&lt;330")</f>
@@ -3917,15 +4000,15 @@
       </c>
       <c r="J10" s="27">
         <f>SUM(J3:J6)</f>
-        <v>49000</v>
+        <v>49213.5</v>
       </c>
       <c r="K10" s="34">
         <f>SUM(K3:K6)</f>
-        <v>49</v>
+        <v>49.213500000000003</v>
       </c>
       <c r="L10" s="38">
         <f>SUM(L3:L6)</f>
-        <v>3.0736379614263303</v>
+        <v>3.0852985994875359</v>
       </c>
       <c r="P10" s="3"/>
       <c r="X10" s="1"/>
@@ -3941,11 +4024,11 @@
       <c r="C11" s="3">
         <v>705.96</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="63" t="s">
         <v>746</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="28"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3966,7 +4049,7 @@
         <v>703.29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E12" s="15">
         <f>AVERAGEIF(C:C,"&lt;750")</f>
@@ -3999,7 +4082,7 @@
         <v>703.56</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E13" s="17">
         <f>AVERAGEIFS(C:C,C:C,"&gt;750",C:C,"&lt;850")</f>
@@ -4031,7 +4114,7 @@
         <v>704.21</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E14" s="16">
         <f>AVERAGEIF(C:C,"&gt;1150")</f>
@@ -4066,9 +4149,9 @@
       <c r="C15" s="3">
         <v>702.8</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="3"/>
       <c r="K15" s="3"/>
     </row>
@@ -4095,10 +4178,10 @@
       </c>
       <c r="G16" s="3"/>
       <c r="I16" s="49" t="s">
+        <v>765</v>
+      </c>
+      <c r="J16" s="49" t="s">
         <v>766</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4113,11 +4196,11 @@
       </c>
       <c r="I17" s="53">
         <f>QUOTIENT(J14,L10)</f>
-        <v>6456</v>
+        <v>6431</v>
       </c>
       <c r="J17" s="50">
         <f>PRODUCT(I17,K10)</f>
-        <v>316344</v>
+        <v>316492.01850000001</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -9098,27 +9181,27 @@
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="5" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$J$8&lt;&gt;$J$4+$J$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>$J$8=$J$3+$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="expression" dxfId="3" priority="17">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>$J$7&lt;&gt;$J$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>$J$7=$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="1" priority="19">
-      <formula>$K$10&lt;&gt;$K$14</formula>
+    <cfRule type="expression" dxfId="7" priority="19">
+      <formula>$K$10&lt;&gt;$K$14+$K$3+$K$4+$K$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="20">
-      <formula>$K$10=$K$14</formula>
+    <cfRule type="expression" dxfId="6" priority="20">
+      <formula>$K$10=$K$14+$K$3+$K$4+$K$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12780,23 +12863,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3dc96d1b-0eb1-4a3f-a39d-687522219ebc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B0C6AC4EBFA99746AAC4D2E24E8D2EA9" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="e0169a0242d4de84e1f084803ce69176">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3dc96d1b-0eb1-4a3f-a39d-687522219ebc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88c78988efbb3b4328b651465b9516fb" ns3:_="">
     <xsd:import namespace="3dc96d1b-0eb1-4a3f-a39d-687522219ebc"/>
@@ -12970,31 +13036,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74723B0B-C541-4DB1-8111-8EA33A23C7A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dc96d1b-0eb1-4a3f-a39d-687522219ebc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F03CDE7-79C1-4B35-9FB6-9DBEA19AF7BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3dc96d1b-0eb1-4a3f-a39d-687522219ebc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78BA4B04-0741-4F80-A6A8-2EDA463ED0A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13010,4 +13069,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F03CDE7-79C1-4B35-9FB6-9DBEA19AF7BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74723B0B-C541-4DB1-8111-8EA33A23C7A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc96d1b-0eb1-4a3f-a39d-687522219ebc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>